--- a/Specs-Standards/Part Number Conventions.xlsx
+++ b/Specs-Standards/Part Number Conventions.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\surya\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C7E1C58-1F1C-4DAE-A86D-1C8A85EA07C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37691D85-F5B1-478D-97F7-9DF79B8F8EA8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{3C740D98-4D11-4A3E-8F05-01EA61C2367E}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="30">
   <si>
     <t>P</t>
   </si>
@@ -60,9 +60,6 @@
     <t>LH</t>
   </si>
   <si>
-    <t>DBF</t>
-  </si>
-  <si>
     <t>ATA Section Heading</t>
   </si>
   <si>
@@ -126,25 +123,6 @@
     </r>
   </si>
   <si>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Helvetica"/>
-      </rPr>
-      <t>Project Classification:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Helvetica"/>
-      </rPr>
-      <t xml:space="preserve"> Denotes project. Default to "DBF" for "Design, Build, Fly."</t>
-    </r>
-  </si>
-  <si>
     <t>-</t>
   </si>
   <si>
@@ -155,25 +133,6 @@
   </si>
   <si>
     <t>ANN</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Helvetica"/>
-      </rPr>
-      <t>File Type:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Helvetica"/>
-      </rPr>
-      <t xml:space="preserve"> Denotes the type of CAD document. For Annotation Models, only use ANN nomenclature.</t>
-    </r>
   </si>
   <si>
     <r>
@@ -338,12 +297,12 @@
 </t>
   </si>
   <si>
-    <t>By Surya M   |   8/11/2021</t>
-  </si>
-  <si>
     <t>ITM</t>
   </si>
   <si>
+    <t>DBF1</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <u/>
@@ -351,6 +310,28 @@
         <color theme="1"/>
         <rFont val="Helvetica"/>
       </rPr>
+      <t>Project Classification:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Helvetica"/>
+      </rPr>
+      <t xml:space="preserve"> Denotes project. Default to "DBF1" for "Design, Build, Fly 1."</t>
+    </r>
+  </si>
+  <si>
+    <t>By Surya M   |   8/11/2021   |   Rev. B</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Helvetica"/>
+      </rPr>
       <t>File Type:</t>
     </r>
     <r>
@@ -359,7 +340,26 @@
         <color theme="1"/>
         <rFont val="Helvetica"/>
       </rPr>
-      <t xml:space="preserve"> Denotes the type of CAD document. For Hardware/Consumable Models, only use ITM nomenclature (stands for "item" or "items").</t>
+      <t xml:space="preserve"> Denotes the type of CAD document. For Annotation Models, only use ANN designation.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Helvetica"/>
+      </rPr>
+      <t>File Type:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Helvetica"/>
+      </rPr>
+      <t xml:space="preserve"> Denotes the type of CAD document. For Hardware/Consumable Models, only use ITM designation (stands for "item" or "items").</t>
     </r>
   </si>
 </sst>
@@ -551,57 +551,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -614,11 +563,62 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -937,687 +937,615 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:I78"/>
+  <dimension ref="A2:H77"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="I65" sqref="I65"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5:F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="9.140625" style="1"/>
-    <col min="2" max="8" width="13.28515625" style="1" customWidth="1"/>
-    <col min="9" max="16384" width="9.140625" style="1"/>
+    <col min="2" max="7" width="13.28515625" style="1" customWidth="1"/>
+    <col min="8" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="24" t="s">
-        <v>22</v>
-      </c>
-      <c r="B2" s="24"/>
-      <c r="C2" s="24"/>
-      <c r="D2" s="24"/>
-      <c r="E2" s="24"/>
-      <c r="F2" s="24"/>
-      <c r="G2" s="24"/>
-      <c r="H2" s="24"/>
-      <c r="I2" s="24"/>
-    </row>
-    <row r="3" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="25"/>
-      <c r="B3" s="25"/>
-      <c r="C3" s="25"/>
-      <c r="D3" s="25"/>
-      <c r="E3" s="25"/>
-      <c r="F3" s="25"/>
-      <c r="G3" s="25"/>
-      <c r="H3" s="25"/>
-      <c r="I3" s="25"/>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="C5" s="3" t="s">
+    <row r="2" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2" s="8"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="8"/>
+      <c r="H2" s="8"/>
+    </row>
+    <row r="3" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="9"/>
+      <c r="B3" s="9"/>
+      <c r="C3" s="9"/>
+      <c r="D3" s="9"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="9"/>
+      <c r="H3" s="9"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="C5" s="25" t="s">
         <v>27</v>
       </c>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
-      <c r="G5" s="3"/>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B7" s="4" t="s">
+      <c r="D5" s="25"/>
+      <c r="E5" s="25"/>
+      <c r="F5" s="25"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B7" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="7"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="7"/>
+      <c r="G7" s="7"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B8" s="7"/>
+      <c r="C8" s="7"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="7"/>
+      <c r="G8" s="7"/>
+    </row>
+    <row r="9" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B10" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D10" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="E10" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="F10" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="G10" s="12" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B11" s="15"/>
+      <c r="C11" s="11"/>
+      <c r="D11" s="11"/>
+      <c r="E11" s="11"/>
+      <c r="F11" s="11"/>
+      <c r="G11" s="13"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B12" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="D12" s="21">
         <v>10</v>
       </c>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
-      <c r="G7" s="4"/>
-      <c r="H7" s="4"/>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B8" s="4"/>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
-      <c r="G8" s="4"/>
-      <c r="H8" s="4"/>
-    </row>
-    <row r="9" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B10" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="C10" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="D10" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="E10" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="F10" s="8"/>
-      <c r="G10" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="H10" s="9" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B11" s="10"/>
-      <c r="C11" s="5"/>
-      <c r="D11" s="5"/>
-      <c r="E11" s="5"/>
-      <c r="F11" s="5"/>
-      <c r="G11" s="5"/>
-      <c r="H11" s="11"/>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B12" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="C12" s="6">
+      <c r="E12" s="21">
         <v>57</v>
       </c>
-      <c r="D12" s="6">
-        <v>10</v>
-      </c>
-      <c r="E12" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="F12" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="G12" s="6" t="s">
+      <c r="F12" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="H12" s="13" t="s">
+      <c r="G12" s="23" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="14"/>
-      <c r="C13" s="15"/>
-      <c r="D13" s="15"/>
-      <c r="E13" s="15"/>
-      <c r="F13" s="15"/>
-      <c r="G13" s="15"/>
-      <c r="H13" s="16"/>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B15" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
-      <c r="F15" s="2"/>
-      <c r="G15" s="2"/>
-      <c r="H15" s="2"/>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B16" s="2"/>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
-      <c r="G16" s="2"/>
-      <c r="H16" s="2"/>
-    </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B18" s="17" t="s">
-        <v>11</v>
-      </c>
-      <c r="C18" s="17"/>
-      <c r="D18" s="17"/>
-      <c r="E18" s="17"/>
-      <c r="F18" s="17"/>
-      <c r="G18" s="17"/>
-      <c r="H18" s="17"/>
-    </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B19" s="17"/>
-      <c r="C19" s="17"/>
+    <row r="13" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="20"/>
+      <c r="C13" s="22"/>
+      <c r="D13" s="22"/>
+      <c r="E13" s="22"/>
+      <c r="F13" s="22"/>
+      <c r="G13" s="24"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B15" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="C15" s="18"/>
+      <c r="D15" s="18"/>
+      <c r="E15" s="18"/>
+      <c r="F15" s="18"/>
+      <c r="G15" s="18"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B16" s="18"/>
+      <c r="C16" s="18"/>
+      <c r="D16" s="18"/>
+      <c r="E16" s="18"/>
+      <c r="F16" s="18"/>
+      <c r="G16" s="18"/>
+    </row>
+    <row r="17" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B17" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="C17" s="16"/>
+      <c r="D17" s="16"/>
+      <c r="E17" s="16"/>
+      <c r="F17" s="16"/>
+      <c r="G17" s="16"/>
+    </row>
+    <row r="18" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B18" s="16"/>
+      <c r="C18" s="16"/>
+      <c r="D18" s="16"/>
+      <c r="E18" s="16"/>
+      <c r="F18" s="16"/>
+      <c r="G18" s="16"/>
+    </row>
+    <row r="19" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C19" s="17" t="s">
+        <v>17</v>
+      </c>
       <c r="D19" s="17"/>
       <c r="E19" s="17"/>
       <c r="F19" s="17"/>
-      <c r="G19" s="17"/>
-      <c r="H19" s="17"/>
-    </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B21" s="17" t="s">
-        <v>12</v>
-      </c>
+    </row>
+    <row r="20" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="C20" s="17"/>
+      <c r="D20" s="17"/>
+      <c r="E20" s="17"/>
+      <c r="F20" s="17"/>
+    </row>
+    <row r="21" spans="2:7" x14ac:dyDescent="0.2">
       <c r="C21" s="17"/>
       <c r="D21" s="17"/>
       <c r="E21" s="17"/>
       <c r="F21" s="17"/>
-      <c r="G21" s="17"/>
-      <c r="H21" s="17"/>
-    </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B22" s="17"/>
+    </row>
+    <row r="22" spans="2:7" x14ac:dyDescent="0.2">
       <c r="C22" s="17"/>
       <c r="D22" s="17"/>
       <c r="E22" s="17"/>
       <c r="F22" s="17"/>
-      <c r="G22" s="17"/>
-      <c r="H22" s="17"/>
-    </row>
-    <row r="24" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B24" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="C24" s="17"/>
-      <c r="D24" s="17"/>
-      <c r="E24" s="17"/>
-      <c r="F24" s="17"/>
-      <c r="G24" s="17"/>
-      <c r="H24" s="17"/>
-    </row>
-    <row r="25" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B25" s="17"/>
-      <c r="C25" s="17"/>
-      <c r="D25" s="17"/>
-      <c r="E25" s="17"/>
-      <c r="F25" s="17"/>
-      <c r="G25" s="17"/>
-      <c r="H25" s="17"/>
-    </row>
-    <row r="26" spans="2:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C26" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="D26" s="18"/>
-      <c r="E26" s="18"/>
-      <c r="F26" s="18"/>
-      <c r="G26" s="18"/>
-    </row>
-    <row r="27" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="C27" s="18"/>
-      <c r="D27" s="18"/>
-      <c r="E27" s="18"/>
-      <c r="F27" s="18"/>
-      <c r="G27" s="18"/>
-    </row>
-    <row r="28" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="C28" s="18"/>
-      <c r="D28" s="18"/>
-      <c r="E28" s="18"/>
-      <c r="F28" s="18"/>
-      <c r="G28" s="18"/>
-    </row>
-    <row r="29" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="C29" s="18"/>
-      <c r="D29" s="18"/>
-      <c r="E29" s="18"/>
-      <c r="F29" s="18"/>
-      <c r="G29" s="18"/>
-    </row>
-    <row r="30" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="C30" s="18"/>
-      <c r="D30" s="18"/>
-      <c r="E30" s="18"/>
-      <c r="F30" s="18"/>
-      <c r="G30" s="18"/>
-    </row>
-    <row r="31" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="C31" s="19"/>
-      <c r="D31" s="19"/>
-      <c r="E31" s="19"/>
-      <c r="F31" s="19"/>
-      <c r="G31" s="19"/>
-    </row>
-    <row r="32" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B32" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="C32" s="17"/>
-      <c r="D32" s="17"/>
-      <c r="E32" s="17"/>
-      <c r="F32" s="17"/>
-      <c r="G32" s="17"/>
-      <c r="H32" s="17"/>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B33" s="17"/>
-      <c r="C33" s="17"/>
+    </row>
+    <row r="23" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="C23" s="17"/>
+      <c r="D23" s="17"/>
+      <c r="E23" s="17"/>
+      <c r="F23" s="17"/>
+    </row>
+    <row r="25" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B25" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" s="16"/>
+      <c r="D25" s="16"/>
+      <c r="E25" s="16"/>
+      <c r="F25" s="16"/>
+      <c r="G25" s="16"/>
+    </row>
+    <row r="26" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B26" s="16"/>
+      <c r="C26" s="16"/>
+      <c r="D26" s="16"/>
+      <c r="E26" s="16"/>
+      <c r="F26" s="16"/>
+      <c r="G26" s="16"/>
+    </row>
+    <row r="28" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B28" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="C28" s="16"/>
+      <c r="D28" s="16"/>
+      <c r="E28" s="16"/>
+      <c r="F28" s="16"/>
+      <c r="G28" s="16"/>
+    </row>
+    <row r="29" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B29" s="16"/>
+      <c r="C29" s="16"/>
+      <c r="D29" s="16"/>
+      <c r="E29" s="16"/>
+      <c r="F29" s="16"/>
+      <c r="G29" s="16"/>
+    </row>
+    <row r="30" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="C30" s="2"/>
+      <c r="D30" s="2"/>
+      <c r="E30" s="2"/>
+      <c r="F30" s="2"/>
+    </row>
+    <row r="31" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B31" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="C31" s="16"/>
+      <c r="D31" s="16"/>
+      <c r="E31" s="16"/>
+      <c r="F31" s="16"/>
+      <c r="G31" s="16"/>
+    </row>
+    <row r="32" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B32" s="16"/>
+      <c r="C32" s="16"/>
+      <c r="D32" s="16"/>
+      <c r="E32" s="16"/>
+      <c r="F32" s="16"/>
+      <c r="G32" s="16"/>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B33" s="6"/>
+      <c r="C33" s="17" t="s">
+        <v>23</v>
+      </c>
       <c r="D33" s="17"/>
       <c r="E33" s="17"/>
       <c r="F33" s="17"/>
-      <c r="G33" s="17"/>
-      <c r="H33" s="17"/>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B34" s="23"/>
-      <c r="C34" s="18" t="s">
+      <c r="G33" s="6"/>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B34" s="6"/>
+      <c r="C34" s="17"/>
+      <c r="D34" s="17"/>
+      <c r="E34" s="17"/>
+      <c r="F34" s="17"/>
+      <c r="G34" s="6"/>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B35" s="6"/>
+      <c r="C35" s="17"/>
+      <c r="D35" s="17"/>
+      <c r="E35" s="17"/>
+      <c r="F35" s="17"/>
+      <c r="G35" s="6"/>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B36" s="6"/>
+      <c r="C36" s="17"/>
+      <c r="D36" s="17"/>
+      <c r="E36" s="17"/>
+      <c r="F36" s="17"/>
+      <c r="G36" s="6"/>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B37" s="6"/>
+      <c r="C37" s="2"/>
+      <c r="D37" s="2"/>
+      <c r="E37" s="2"/>
+      <c r="F37" s="2"/>
+      <c r="G37" s="6"/>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B38" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="C38" s="16"/>
+      <c r="D38" s="16"/>
+      <c r="E38" s="16"/>
+      <c r="F38" s="16"/>
+      <c r="G38" s="16"/>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B39" s="16"/>
+      <c r="C39" s="16"/>
+      <c r="D39" s="16"/>
+      <c r="E39" s="16"/>
+      <c r="F39" s="16"/>
+      <c r="G39" s="16"/>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="C40" s="3"/>
+      <c r="D40" s="3"/>
+      <c r="E40" s="3"/>
+      <c r="F40" s="3"/>
+    </row>
+    <row r="41" spans="1:8" ht="7.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="4"/>
+      <c r="B41" s="4"/>
+      <c r="C41" s="5"/>
+      <c r="D41" s="5"/>
+      <c r="E41" s="5"/>
+      <c r="F41" s="5"/>
+      <c r="G41" s="4"/>
+      <c r="H41" s="4"/>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="C42" s="3"/>
+      <c r="D42" s="3"/>
+      <c r="E42" s="3"/>
+      <c r="F42" s="3"/>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B43" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C43" s="7"/>
+      <c r="D43" s="7"/>
+      <c r="E43" s="7"/>
+      <c r="F43" s="7"/>
+      <c r="G43" s="7"/>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B44" s="7"/>
+      <c r="C44" s="7"/>
+      <c r="D44" s="7"/>
+      <c r="E44" s="7"/>
+      <c r="F44" s="7"/>
+      <c r="G44" s="7"/>
+    </row>
+    <row r="45" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="C46" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="D46" s="10"/>
+      <c r="E46" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="F46" s="12" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="C47" s="15"/>
+      <c r="D47" s="11"/>
+      <c r="E47" s="11"/>
+      <c r="F47" s="13"/>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="C48" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="D48" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="E48" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="F48" s="23" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C49" s="20"/>
+      <c r="D49" s="22"/>
+      <c r="E49" s="22"/>
+      <c r="F49" s="24"/>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B51" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="D34" s="18"/>
-      <c r="E34" s="18"/>
-      <c r="F34" s="18"/>
-      <c r="G34" s="18"/>
-      <c r="H34" s="23"/>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B35" s="23"/>
-      <c r="C35" s="18"/>
-      <c r="D35" s="18"/>
-      <c r="E35" s="18"/>
-      <c r="F35" s="18"/>
-      <c r="G35" s="18"/>
-      <c r="H35" s="23"/>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B36" s="23"/>
-      <c r="C36" s="18"/>
-      <c r="D36" s="18"/>
-      <c r="E36" s="18"/>
-      <c r="F36" s="18"/>
-      <c r="G36" s="18"/>
-      <c r="H36" s="23"/>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B37" s="23"/>
-      <c r="C37" s="18"/>
-      <c r="D37" s="18"/>
-      <c r="E37" s="18"/>
-      <c r="F37" s="18"/>
-      <c r="G37" s="18"/>
-      <c r="H37" s="23"/>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B38" s="23"/>
-      <c r="C38" s="19"/>
-      <c r="D38" s="19"/>
-      <c r="E38" s="19"/>
-      <c r="F38" s="19"/>
-      <c r="G38" s="19"/>
-      <c r="H38" s="23"/>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B39" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="C39" s="17"/>
-      <c r="D39" s="17"/>
-      <c r="E39" s="17"/>
-      <c r="F39" s="17"/>
-      <c r="G39" s="17"/>
-      <c r="H39" s="17"/>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B40" s="17"/>
-      <c r="C40" s="17"/>
-      <c r="D40" s="17"/>
-      <c r="E40" s="17"/>
-      <c r="F40" s="17"/>
-      <c r="G40" s="17"/>
-      <c r="H40" s="17"/>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="C41" s="20"/>
-      <c r="D41" s="20"/>
-      <c r="E41" s="20"/>
-      <c r="F41" s="20"/>
-      <c r="G41" s="20"/>
-    </row>
-    <row r="42" spans="1:9" ht="7.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="21"/>
-      <c r="B42" s="21"/>
-      <c r="C42" s="22"/>
-      <c r="D42" s="22"/>
-      <c r="E42" s="22"/>
-      <c r="F42" s="22"/>
-      <c r="G42" s="22"/>
-      <c r="H42" s="21"/>
-      <c r="I42" s="21"/>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="C43" s="20"/>
-      <c r="D43" s="20"/>
-      <c r="E43" s="20"/>
-      <c r="F43" s="20"/>
-      <c r="G43" s="20"/>
-    </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B44" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C44" s="4"/>
-      <c r="D44" s="4"/>
-      <c r="E44" s="4"/>
-      <c r="F44" s="4"/>
-      <c r="G44" s="4"/>
-      <c r="H44" s="4"/>
-    </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B45" s="4"/>
-      <c r="C45" s="4"/>
-      <c r="D45" s="4"/>
-      <c r="E45" s="4"/>
-      <c r="F45" s="4"/>
-      <c r="G45" s="4"/>
-      <c r="H45" s="4"/>
-    </row>
-    <row r="46" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="C47" s="7" t="s">
+      <c r="C51" s="18"/>
+      <c r="D51" s="18"/>
+      <c r="E51" s="18"/>
+      <c r="F51" s="18"/>
+      <c r="G51" s="18"/>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B52" s="18"/>
+      <c r="C52" s="18"/>
+      <c r="D52" s="18"/>
+      <c r="E52" s="18"/>
+      <c r="F52" s="18"/>
+      <c r="G52" s="18"/>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B54" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="C54" s="16"/>
+      <c r="D54" s="16"/>
+      <c r="E54" s="16"/>
+      <c r="F54" s="16"/>
+      <c r="G54" s="16"/>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B55" s="16"/>
+      <c r="C55" s="16"/>
+      <c r="D55" s="16"/>
+      <c r="E55" s="16"/>
+      <c r="F55" s="16"/>
+      <c r="G55" s="16"/>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B57" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="C57" s="16"/>
+      <c r="D57" s="16"/>
+      <c r="E57" s="16"/>
+      <c r="F57" s="16"/>
+      <c r="G57" s="16"/>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B58" s="16"/>
+      <c r="C58" s="16"/>
+      <c r="D58" s="16"/>
+      <c r="E58" s="16"/>
+      <c r="F58" s="16"/>
+      <c r="G58" s="16"/>
+    </row>
+    <row r="60" spans="1:8" ht="7.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A60" s="4"/>
+      <c r="B60" s="4"/>
+      <c r="C60" s="4"/>
+      <c r="D60" s="4"/>
+      <c r="E60" s="4"/>
+      <c r="F60" s="4"/>
+      <c r="G60" s="4"/>
+      <c r="H60" s="4"/>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B62" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C62" s="7"/>
+      <c r="D62" s="7"/>
+      <c r="E62" s="7"/>
+      <c r="F62" s="7"/>
+      <c r="G62" s="7"/>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B63" s="7"/>
+      <c r="C63" s="7"/>
+      <c r="D63" s="7"/>
+      <c r="E63" s="7"/>
+      <c r="F63" s="7"/>
+      <c r="G63" s="7"/>
+    </row>
+    <row r="64" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="65" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="C65" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="D47" s="8"/>
-      <c r="E47" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="F47" s="8"/>
-      <c r="G47" s="9" t="s">
+      <c r="D65" s="10"/>
+      <c r="E65" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="F65" s="12" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="C48" s="10"/>
-      <c r="D48" s="5"/>
-      <c r="E48" s="5"/>
-      <c r="F48" s="5"/>
-      <c r="G48" s="11"/>
-    </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="C49" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="D49" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E49" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="F49" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="G49" s="13" t="s">
+    <row r="66" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="C66" s="15"/>
+      <c r="D66" s="11"/>
+      <c r="E66" s="11"/>
+      <c r="F66" s="13"/>
+    </row>
+    <row r="67" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="C67" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="D67" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="E67" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="F67" s="23" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C50" s="14"/>
-      <c r="D50" s="15"/>
-      <c r="E50" s="15"/>
-      <c r="F50" s="15"/>
-      <c r="G50" s="16"/>
-    </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B52" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C52" s="2"/>
-      <c r="D52" s="2"/>
-      <c r="E52" s="2"/>
-      <c r="F52" s="2"/>
-      <c r="G52" s="2"/>
-      <c r="H52" s="2"/>
-    </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B53" s="2"/>
-      <c r="C53" s="2"/>
-      <c r="D53" s="2"/>
-      <c r="E53" s="2"/>
-      <c r="F53" s="2"/>
-      <c r="G53" s="2"/>
-      <c r="H53" s="2"/>
-    </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B55" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="C55" s="17"/>
-      <c r="D55" s="17"/>
-      <c r="E55" s="17"/>
-      <c r="F55" s="17"/>
-      <c r="G55" s="17"/>
-      <c r="H55" s="17"/>
-    </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B56" s="17"/>
-      <c r="C56" s="17"/>
-      <c r="D56" s="17"/>
-      <c r="E56" s="17"/>
-      <c r="F56" s="17"/>
-      <c r="G56" s="17"/>
-      <c r="H56" s="17"/>
-    </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B58" s="17" t="s">
-        <v>24</v>
-      </c>
-      <c r="C58" s="17"/>
-      <c r="D58" s="17"/>
-      <c r="E58" s="17"/>
-      <c r="F58" s="17"/>
-      <c r="G58" s="17"/>
-      <c r="H58" s="17"/>
-    </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B59" s="17"/>
-      <c r="C59" s="17"/>
-      <c r="D59" s="17"/>
-      <c r="E59" s="17"/>
-      <c r="F59" s="17"/>
-      <c r="G59" s="17"/>
-      <c r="H59" s="17"/>
-    </row>
-    <row r="61" spans="1:9" ht="7.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="21"/>
-      <c r="B61" s="21"/>
-      <c r="C61" s="21"/>
-      <c r="D61" s="21"/>
-      <c r="E61" s="21"/>
-      <c r="F61" s="21"/>
-      <c r="G61" s="21"/>
-      <c r="H61" s="21"/>
-      <c r="I61" s="21"/>
-    </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B63" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="C63" s="4"/>
-      <c r="D63" s="4"/>
-      <c r="E63" s="4"/>
-      <c r="F63" s="4"/>
-      <c r="G63" s="4"/>
-      <c r="H63" s="4"/>
-    </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B64" s="4"/>
-      <c r="C64" s="4"/>
-      <c r="D64" s="4"/>
-      <c r="E64" s="4"/>
-      <c r="F64" s="4"/>
-      <c r="G64" s="4"/>
-      <c r="H64" s="4"/>
-    </row>
-    <row r="65" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="66" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="C66" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="D66" s="8"/>
-      <c r="E66" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="F66" s="8"/>
-      <c r="G66" s="9" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="67" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="C67" s="10"/>
-      <c r="D67" s="5"/>
-      <c r="E67" s="5"/>
-      <c r="F67" s="5"/>
-      <c r="G67" s="11"/>
-    </row>
-    <row r="68" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="C68" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="D68" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E68" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="F68" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="G68" s="13" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="69" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C69" s="14"/>
-      <c r="D69" s="15"/>
-      <c r="E69" s="15"/>
-      <c r="F69" s="15"/>
-      <c r="G69" s="16"/>
-    </row>
-    <row r="71" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B71" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C71" s="2"/>
-      <c r="D71" s="2"/>
-      <c r="E71" s="2"/>
-      <c r="F71" s="2"/>
-      <c r="G71" s="2"/>
-      <c r="H71" s="2"/>
-    </row>
-    <row r="72" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B72" s="2"/>
-      <c r="C72" s="2"/>
-      <c r="D72" s="2"/>
-      <c r="E72" s="2"/>
-      <c r="F72" s="2"/>
-      <c r="G72" s="2"/>
-      <c r="H72" s="2"/>
-    </row>
-    <row r="74" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B74" s="17" t="s">
+    <row r="68" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C68" s="20"/>
+      <c r="D68" s="22"/>
+      <c r="E68" s="22"/>
+      <c r="F68" s="24"/>
+    </row>
+    <row r="70" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B70" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="C70" s="18"/>
+      <c r="D70" s="18"/>
+      <c r="E70" s="18"/>
+      <c r="F70" s="18"/>
+      <c r="G70" s="18"/>
+    </row>
+    <row r="71" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B71" s="18"/>
+      <c r="C71" s="18"/>
+      <c r="D71" s="18"/>
+      <c r="E71" s="18"/>
+      <c r="F71" s="18"/>
+      <c r="G71" s="18"/>
+    </row>
+    <row r="73" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B73" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="C74" s="17"/>
-      <c r="D74" s="17"/>
-      <c r="E74" s="17"/>
-      <c r="F74" s="17"/>
-      <c r="G74" s="17"/>
-      <c r="H74" s="17"/>
-    </row>
-    <row r="75" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B75" s="17"/>
-      <c r="C75" s="17"/>
-      <c r="D75" s="17"/>
-      <c r="E75" s="17"/>
-      <c r="F75" s="17"/>
-      <c r="G75" s="17"/>
-      <c r="H75" s="17"/>
-    </row>
-    <row r="77" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B77" s="17" t="s">
-        <v>24</v>
-      </c>
-      <c r="C77" s="17"/>
-      <c r="D77" s="17"/>
-      <c r="E77" s="17"/>
-      <c r="F77" s="17"/>
-      <c r="G77" s="17"/>
-      <c r="H77" s="17"/>
-    </row>
-    <row r="78" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B78" s="17"/>
-      <c r="C78" s="17"/>
-      <c r="D78" s="17"/>
-      <c r="E78" s="17"/>
-      <c r="F78" s="17"/>
-      <c r="G78" s="17"/>
-      <c r="H78" s="17"/>
+      <c r="C73" s="16"/>
+      <c r="D73" s="16"/>
+      <c r="E73" s="16"/>
+      <c r="F73" s="16"/>
+      <c r="G73" s="16"/>
+    </row>
+    <row r="74" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B74" s="16"/>
+      <c r="C74" s="16"/>
+      <c r="D74" s="16"/>
+      <c r="E74" s="16"/>
+      <c r="F74" s="16"/>
+      <c r="G74" s="16"/>
+    </row>
+    <row r="76" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B76" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="C76" s="16"/>
+      <c r="D76" s="16"/>
+      <c r="E76" s="16"/>
+      <c r="F76" s="16"/>
+      <c r="G76" s="16"/>
+    </row>
+    <row r="77" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B77" s="16"/>
+      <c r="C77" s="16"/>
+      <c r="D77" s="16"/>
+      <c r="E77" s="16"/>
+      <c r="F77" s="16"/>
+      <c r="G77" s="16"/>
     </row>
   </sheetData>
-  <mergeCells count="53">
-    <mergeCell ref="B71:H72"/>
-    <mergeCell ref="B74:H75"/>
-    <mergeCell ref="B77:H78"/>
-    <mergeCell ref="C5:G5"/>
-    <mergeCell ref="C68:C69"/>
-    <mergeCell ref="D68:D69"/>
-    <mergeCell ref="E68:E69"/>
-    <mergeCell ref="F68:F69"/>
-    <mergeCell ref="G68:G69"/>
-    <mergeCell ref="B63:H64"/>
-    <mergeCell ref="C66:C67"/>
-    <mergeCell ref="D66:D67"/>
-    <mergeCell ref="E66:E67"/>
-    <mergeCell ref="F66:F67"/>
-    <mergeCell ref="G66:G67"/>
-    <mergeCell ref="B55:H56"/>
-    <mergeCell ref="B32:H33"/>
-    <mergeCell ref="C34:G37"/>
-    <mergeCell ref="B39:H40"/>
-    <mergeCell ref="B58:H59"/>
-    <mergeCell ref="C47:C48"/>
-    <mergeCell ref="C49:C50"/>
-    <mergeCell ref="F47:F48"/>
-    <mergeCell ref="F49:F50"/>
-    <mergeCell ref="B52:H53"/>
-    <mergeCell ref="D47:D48"/>
-    <mergeCell ref="E47:E48"/>
-    <mergeCell ref="G47:G48"/>
-    <mergeCell ref="D49:D50"/>
-    <mergeCell ref="E49:E50"/>
-    <mergeCell ref="G49:G50"/>
-    <mergeCell ref="B21:H22"/>
-    <mergeCell ref="B24:H25"/>
-    <mergeCell ref="C26:G30"/>
+  <mergeCells count="47">
+    <mergeCell ref="B70:G71"/>
+    <mergeCell ref="B73:G74"/>
+    <mergeCell ref="B76:G77"/>
+    <mergeCell ref="C5:F5"/>
+    <mergeCell ref="C67:C68"/>
+    <mergeCell ref="D67:D68"/>
+    <mergeCell ref="E67:E68"/>
+    <mergeCell ref="F67:F68"/>
+    <mergeCell ref="B62:G63"/>
+    <mergeCell ref="C65:C66"/>
+    <mergeCell ref="D65:D66"/>
+    <mergeCell ref="E65:E66"/>
+    <mergeCell ref="F65:F66"/>
+    <mergeCell ref="B54:G55"/>
+    <mergeCell ref="G12:G13"/>
+    <mergeCell ref="B31:G32"/>
+    <mergeCell ref="C33:F36"/>
+    <mergeCell ref="B38:G39"/>
+    <mergeCell ref="B57:G58"/>
+    <mergeCell ref="C46:C47"/>
+    <mergeCell ref="C48:C49"/>
+    <mergeCell ref="B51:G52"/>
+    <mergeCell ref="D46:D47"/>
+    <mergeCell ref="E46:E47"/>
+    <mergeCell ref="F46:F47"/>
+    <mergeCell ref="D48:D49"/>
+    <mergeCell ref="E48:E49"/>
+    <mergeCell ref="F48:F49"/>
+    <mergeCell ref="B43:G44"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="D12:D13"/>
+    <mergeCell ref="C12:C13"/>
     <mergeCell ref="F12:F13"/>
+    <mergeCell ref="B28:G29"/>
+    <mergeCell ref="B17:G18"/>
+    <mergeCell ref="C19:F23"/>
+    <mergeCell ref="B15:G16"/>
+    <mergeCell ref="B25:G26"/>
+    <mergeCell ref="B7:G8"/>
+    <mergeCell ref="A2:H3"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="G10:G11"/>
     <mergeCell ref="F10:F11"/>
-    <mergeCell ref="B44:H45"/>
-    <mergeCell ref="B15:H16"/>
-    <mergeCell ref="B18:H19"/>
-    <mergeCell ref="B7:H8"/>
-    <mergeCell ref="A2:I3"/>
+    <mergeCell ref="D10:D11"/>
     <mergeCell ref="C10:C11"/>
-    <mergeCell ref="H10:H11"/>
-    <mergeCell ref="G10:G11"/>
-    <mergeCell ref="D10:D11"/>
-    <mergeCell ref="E10:E11"/>
     <mergeCell ref="B10:B11"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="D12:D13"/>
-    <mergeCell ref="E12:E13"/>
-    <mergeCell ref="G12:G13"/>
-    <mergeCell ref="H12:H13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="5" scale="81" orientation="portrait" r:id="rId1"/>
